--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43769E36-6492-2140-B268-34161762FF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD819FA5-2785-9E4F-AEE9-56A1564578BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="5" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
@@ -3101,7 +3101,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD819FA5-2785-9E4F-AEE9-56A1564578BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B5219-AA51-6243-A4F1-DB37B647B096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="5" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="6" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="21_30" sheetId="4" r:id="rId4"/>
     <sheet name="21_45" sheetId="5" r:id="rId5"/>
     <sheet name="22_00" sheetId="6" r:id="rId6"/>
+    <sheet name="22_15" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -1332,6 +1333,217 @@
         <family val="2"/>
       </rPr>
       <t>187236</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 883 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Savivaldybių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(duomenys iš 56 savivaldybių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>420943</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>233544</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55,48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1836</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>231708</t>
     </r>
     <r>
       <rPr>
@@ -3100,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8C02A71-ECB6-854A-9F99-5F797FAE996E}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -3357,4 +3569,267 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EC1CD5-1B54-5B48-8C82-1CC878B15DC3}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>87051</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30141</v>
+      </c>
+      <c r="D11" s="1">
+        <v>117192</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50.58</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>27046</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4339</v>
+      </c>
+      <c r="D12" s="1">
+        <v>31385</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>22386</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5126</v>
+      </c>
+      <c r="D13" s="1">
+        <v>27512</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>18467</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26465</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.42</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13802</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2893</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16695</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4046</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1562</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5608</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2851</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3878</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2145</v>
+      </c>
+      <c r="C18" s="1">
+        <v>828</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2973</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>177794</v>
+      </c>
+      <c r="C19" s="3">
+        <v>53914</v>
+      </c>
+      <c r="D19" s="3">
+        <v>231708</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{59339643-CECD-9A41-A929-5286F5E24C3C}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{0D96CBD1-343E-2046-B086-BDAA2AE77001}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{1A64FE87-23EB-6342-855D-8D681B8E8663}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{9B45A44B-AABE-5E48-9B06-551368CDA73A}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{4F889098-C3E6-D44C-B025-372F07E7BA86}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{F006CF87-A574-FF4E-ABB8-9F3173BC2409}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{0B645EEA-739E-2845-9391-521FAB361006}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{B346AB2D-0895-9248-873D-7ECDE151DCC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B5219-AA51-6243-A4F1-DB37B647B096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDBB1AE-FF19-B346-8AAE-55191C1B335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="6" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="8" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="21_45" sheetId="5" r:id="rId5"/>
     <sheet name="22_00" sheetId="6" r:id="rId6"/>
     <sheet name="22_15" sheetId="7" r:id="rId7"/>
+    <sheet name="22_30" sheetId="8" r:id="rId8"/>
+    <sheet name="22_45" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -1563,6 +1565,428 @@
         <family val="2"/>
       </rPr>
       <t>99,21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1008 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Savivaldybių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(duomenys iš 57 savivaldybių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>542720</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>302019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55,65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>299620</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1090 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Savivaldybių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(duomenys iš 58 savivaldybių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>632563</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>351977</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55,64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2850</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>349127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
     </r>
     <r>
       <rPr>
@@ -3575,9 +3999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EC1CD5-1B54-5B48-8C82-1CC878B15DC3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3832,4 +4254,530 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E77BAC-B9B3-8644-9AFB-A2EDEB6ED66B}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>112172</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37728</v>
+      </c>
+      <c r="D11" s="1">
+        <v>149900</v>
+      </c>
+      <c r="E11" s="1">
+        <v>50.03</v>
+      </c>
+      <c r="F11" s="1">
+        <v>49.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>33753</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5483</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39236</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29591</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6569</v>
+      </c>
+      <c r="D13" s="1">
+        <v>36160</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25317</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10581</v>
+      </c>
+      <c r="D14" s="1">
+        <v>35898</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.98</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>18465</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3636</v>
+      </c>
+      <c r="D15" s="1">
+        <v>22101</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5412</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2071</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7483</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3603</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1360</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4963</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2819</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1060</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3879</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>231132</v>
+      </c>
+      <c r="C19" s="3">
+        <v>68488</v>
+      </c>
+      <c r="D19" s="3">
+        <v>299620</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{3364F719-54C4-4648-8393-6F46CBCDBD2B}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{DDF2E22F-FAC9-9348-829F-DAEC18DE59D4}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{3DEE5ECC-973C-E940-8A06-530B668DB95E}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{AA634C6A-F905-1A43-9615-84D2B446A377}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{7BC4F0A4-A8E5-B04F-8841-8810C3377181}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{912575AB-0C57-D041-A13B-2FFA0891AFDA}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{42816C31-E84F-AA49-A281-DBE684B102DB}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{6D61107D-83FE-7A48-BFAC-539A42E63375}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75C3FD8-2E99-5945-B1F1-8894FA218F50}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>130713</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43103</v>
+      </c>
+      <c r="D11" s="1">
+        <v>173816</v>
+      </c>
+      <c r="E11" s="1">
+        <v>49.79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>49.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>38622</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6280</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44902</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12.86</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30542</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12359</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42901</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.29</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>34818</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7684</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42502</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12.17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21773</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4133</v>
+      </c>
+      <c r="D15" s="1">
+        <v>25906</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6457</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2418</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8875</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4153</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1542</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5695</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3304</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1226</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4530</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>270382</v>
+      </c>
+      <c r="C19" s="3">
+        <v>78745</v>
+      </c>
+      <c r="D19" s="3">
+        <v>349127</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{7FCF0334-CD3D-2C45-974E-5675F41BBA42}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{F1BD83E5-E34F-3248-B7F5-D0287454929D}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{9D8B5894-BA70-6845-8A9B-82EFD0AC8F68}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{E1935A9D-A0B2-3346-AE7D-14A240BD43EF}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{873D142E-140F-B847-ACB1-D2A7EB497DAC}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{80891E70-85C3-D54D-BBD7-A524AF7389E7}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{8A194E98-861F-2646-8469-2353A9D39BCA}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{D0130C03-1C62-734B-9F58-440E8039AE63}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDBB1AE-FF19-B346-8AAE-55191C1B335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31689A87-274A-9B43-BAF0-185DB890ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="8" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="9" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="22_15" sheetId="7" r:id="rId7"/>
     <sheet name="22_30" sheetId="8" r:id="rId8"/>
     <sheet name="22_45" sheetId="9" r:id="rId9"/>
+    <sheet name="23_00" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -1987,6 +1988,183 @@
         <family val="2"/>
       </rPr>
       <t>99,19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1172 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>752758</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>420889</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>55,91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3444</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>417445</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,18</t>
     </r>
     <r>
       <rPr>
@@ -2673,6 +2851,269 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85804DFE-075E-6D41-AFD0-EC62D8881128}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>155624</v>
+      </c>
+      <c r="C11" s="1">
+        <v>49605</v>
+      </c>
+      <c r="D11" s="1">
+        <v>205229</v>
+      </c>
+      <c r="E11" s="1">
+        <v>49.16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>48.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>38245</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15414</v>
+      </c>
+      <c r="D12" s="1">
+        <v>53659</v>
+      </c>
+      <c r="E12" s="1">
+        <v>12.85</v>
+      </c>
+      <c r="F12" s="1">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7349</v>
+      </c>
+      <c r="D13" s="1">
+        <v>52348</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.54</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42023</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9051</v>
+      </c>
+      <c r="D14" s="1">
+        <v>51074</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12.23</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>27006</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4968</v>
+      </c>
+      <c r="D15" s="1">
+        <v>31974</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.66</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7882</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3047</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10929</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4994</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1845</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6839</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3910</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1483</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5393</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>324683</v>
+      </c>
+      <c r="C19" s="3">
+        <v>92762</v>
+      </c>
+      <c r="D19" s="3">
+        <v>417445</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{8FCA261B-5200-EF48-A0BF-0C4A41BF8CC4}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{513E0344-1162-334B-80ED-ACDC1467D989}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{387284F9-9AAB-0740-BB19-B0D9E31F930F}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{A43E0398-F2A3-D44A-A70C-170EF9B2A19F}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{99C9F9E9-B093-ED4C-9B6D-6BAE75687465}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{D09CEE8E-F64D-6542-9A2D-DEA3F3469EE6}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{81575037-DE9F-A84B-9A0F-2841EDFAE3F7}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{18FD49CE-68FD-B243-80C5-9BF8FE7C4B50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2503F5-8769-EF41-BADD-9449FFCE94FE}">
   <dimension ref="A1:F19"/>
@@ -4523,7 +4964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75C3FD8-2E99-5945-B1F1-8894FA218F50}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31689A87-274A-9B43-BAF0-185DB890ED33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A23DC2-D8CC-004F-B8AA-29DF43DA8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="9" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="11" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="22_30" sheetId="8" r:id="rId8"/>
     <sheet name="22_45" sheetId="9" r:id="rId9"/>
     <sheet name="23_00" sheetId="10" r:id="rId10"/>
+    <sheet name="23_15" sheetId="11" r:id="rId11"/>
+    <sheet name="23_30" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -2165,6 +2167,394 @@
         <family val="2"/>
       </rPr>
       <t>99,18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1245 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>869882</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>490615</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56,40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>486622</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1311 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Savivaldybių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(duomenys iš 59 savivaldybių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>986481</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>558922</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56,66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4550</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>554372</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
     </r>
     <r>
       <rPr>
@@ -2855,7 +3245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85804DFE-075E-6D41-AFD0-EC62D8881128}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3109,6 +3499,532 @@
     <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{D09CEE8E-F64D-6542-9A2D-DEA3F3469EE6}"/>
     <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{81575037-DE9F-A84B-9A0F-2841EDFAE3F7}"/>
     <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{18FD49CE-68FD-B243-80C5-9BF8FE7C4B50}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEE0886-377E-D14B-809E-7D6DAFC07C50}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>180723</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55652</v>
+      </c>
+      <c r="D11" s="1">
+        <v>236375</v>
+      </c>
+      <c r="E11" s="1">
+        <v>48.57</v>
+      </c>
+      <c r="F11" s="1">
+        <v>48.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>48152</v>
+      </c>
+      <c r="C12" s="1">
+        <v>18600</v>
+      </c>
+      <c r="D12" s="1">
+        <v>66752</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.72</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>49546</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10414</v>
+      </c>
+      <c r="D13" s="1">
+        <v>59960</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.32</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>50433</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8250</v>
+      </c>
+      <c r="D14" s="1">
+        <v>58683</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12.06</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31609</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5721</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37330</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.67</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9753</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3629</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13382</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5782</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2086</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7868</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4553</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1719</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6272</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>380551</v>
+      </c>
+      <c r="C19" s="3">
+        <v>106071</v>
+      </c>
+      <c r="D19" s="3">
+        <v>486622</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{943CA78E-DCCA-9A47-84C3-314DE59D6B9B}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{B7EBFEE7-0A51-8E4B-B59F-1E39CDCEBA6E}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{732004D1-0243-4745-85BB-65D3F3E8A965}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{EAFED4A0-44F3-BF46-9089-053D3546E018}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{DA9D8110-6CF1-D343-AD30-FF047F0B5818}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{91C36A49-B9E9-0641-9B83-39377466A00F}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{D3D6CADC-2BF7-D544-84AC-7B3E6C4BB527}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{54E9FB87-5C81-6744-B5EF-AC527618FEE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FC5BD-43E6-7B40-8EB4-0A5EC2CEBB40}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>205093</v>
+      </c>
+      <c r="C11" s="1">
+        <v>61130</v>
+      </c>
+      <c r="D11" s="1">
+        <v>266223</v>
+      </c>
+      <c r="E11" s="1">
+        <v>48.02</v>
+      </c>
+      <c r="F11" s="1">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>58332</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21361</v>
+      </c>
+      <c r="D12" s="1">
+        <v>79693</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57003</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11607</v>
+      </c>
+      <c r="D13" s="1">
+        <v>68610</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>55811</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9018</v>
+      </c>
+      <c r="D14" s="1">
+        <v>64829</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.69</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>36642</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6343</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42985</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11628</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4110</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15738</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6603</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2432</v>
+      </c>
+      <c r="D17" s="1">
+        <v>9035</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5265</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7259</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>436377</v>
+      </c>
+      <c r="C19" s="3">
+        <v>117995</v>
+      </c>
+      <c r="D19" s="3">
+        <v>554372</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{0070F873-EDE9-4243-82D8-2A714688FC1C}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{44F63822-562C-7940-B191-916779719DD6}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{C65186D1-0E12-D34C-B3A7-50A941FC898E}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{34C9812C-6E25-9940-881A-D9C7EB4BEAF6}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{289871B4-7A9B-E642-AC3E-7DC516C25CBF}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{549113E2-B450-174C-85A4-ED3EEE9A5A0C}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{2940AD62-5A60-9049-82F3-3CD69941E596}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{CB6E2E8C-7F31-C64C-8682-D91D75F6E698}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A23DC2-D8CC-004F-B8AA-29DF43DA8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044E9E5-EB5A-EC4D-B860-A6A270515D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="11" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="12" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="23_00" sheetId="10" r:id="rId10"/>
     <sheet name="23_15" sheetId="11" r:id="rId11"/>
     <sheet name="23_30" sheetId="12" r:id="rId12"/>
+    <sheet name="23_45" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="67">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -2536,6 +2537,183 @@
         <family val="2"/>
       </rPr>
       <t>554372</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1380 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1113864</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>633920</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>56,91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5158</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>628762</t>
     </r>
     <r>
       <rPr>
@@ -3771,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2FC5BD-43E6-7B40-8EB4-0A5EC2CEBB40}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4025,6 +4203,266 @@
     <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{549113E2-B450-174C-85A4-ED3EEE9A5A0C}"/>
     <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{2940AD62-5A60-9049-82F3-3CD69941E596}"/>
     <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{CB6E2E8C-7F31-C64C-8682-D91D75F6E698}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B566516-3573-A747-8A2F-68895FB51EC3}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>231085</v>
+      </c>
+      <c r="C11" s="1">
+        <v>67883</v>
+      </c>
+      <c r="D11" s="1">
+        <v>298968</v>
+      </c>
+      <c r="E11" s="1">
+        <v>47.55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>47.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>68389</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25077</v>
+      </c>
+      <c r="D12" s="1">
+        <v>93466</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14.87</v>
+      </c>
+      <c r="F12" s="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>65020</v>
+      </c>
+      <c r="C13" s="1">
+        <v>13138</v>
+      </c>
+      <c r="D13" s="1">
+        <v>78158</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>61769</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9966</v>
+      </c>
+      <c r="D14" s="1">
+        <v>71735</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.41</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42752</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7086</v>
+      </c>
+      <c r="D15" s="1">
+        <v>49838</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13451</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4736</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18187</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7509</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2667</v>
+      </c>
+      <c r="D17" s="1">
+        <v>10176</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5991</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2243</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8234</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>495966</v>
+      </c>
+      <c r="C19" s="3">
+        <v>132796</v>
+      </c>
+      <c r="D19" s="3">
+        <v>628762</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{37CB1800-41B1-E243-ADB6-B1D77B7D4A04}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{9523A105-71D1-0144-A9A4-2B591269C69D}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{665E21C6-5541-1F48-A024-8F13F3AF5C95}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{D0AAC610-6A5A-6243-B26E-8F7E79573741}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{3241BC57-71B2-6345-90B4-06650987C6C5}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{B3145341-2147-9F43-883B-5ADAA6460AA0}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{A6183161-5DEA-D746-A517-3B7D0E31DB6E}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{70699348-48A7-FA4F-B02F-58D779FAF26A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A044E9E5-EB5A-EC4D-B860-A6A270515D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C2814-C653-D94C-8145-840A076A0BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="12" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="13" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="23_15" sheetId="11" r:id="rId11"/>
     <sheet name="23_30" sheetId="12" r:id="rId12"/>
     <sheet name="23_45" sheetId="13" r:id="rId13"/>
+    <sheet name="00_01" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="70">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -2714,6 +2715,183 @@
         <family val="2"/>
       </rPr>
       <t>628762</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1439 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1221804</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>698519</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>57,17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5643</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>692876</t>
     </r>
     <r>
       <rPr>
@@ -4212,7 +4390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B566516-3573-A747-8A2F-68895FB51EC3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -4463,6 +4641,269 @@
     <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{B3145341-2147-9F43-883B-5ADAA6460AA0}"/>
     <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{A6183161-5DEA-D746-A517-3B7D0E31DB6E}"/>
     <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{70699348-48A7-FA4F-B02F-58D779FAF26A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D0EF36-4F73-5744-8C60-6CDF93AE75EF}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>253096</v>
+      </c>
+      <c r="C11" s="1">
+        <v>74091</v>
+      </c>
+      <c r="D11" s="1">
+        <v>327187</v>
+      </c>
+      <c r="E11" s="1">
+        <v>47.22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>46.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>78216</v>
+      </c>
+      <c r="C12" s="1">
+        <v>28403</v>
+      </c>
+      <c r="D12" s="1">
+        <v>106619</v>
+      </c>
+      <c r="E12" s="1">
+        <v>15.39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>71798</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14573</v>
+      </c>
+      <c r="D13" s="1">
+        <v>86371</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>66388</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10885</v>
+      </c>
+      <c r="D14" s="1">
+        <v>77273</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.15</v>
+      </c>
+      <c r="F14" s="1">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>46898</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7693</v>
+      </c>
+      <c r="D15" s="1">
+        <v>54591</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.88</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15350</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5329</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20679</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8215</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2848</v>
+      </c>
+      <c r="D17" s="1">
+        <v>11063</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6657</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2436</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9093</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>546618</v>
+      </c>
+      <c r="C19" s="3">
+        <v>146258</v>
+      </c>
+      <c r="D19" s="3">
+        <v>692876</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{3402ADD1-CE85-9D46-82A1-036705800F92}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{4805AFD3-3289-A249-8B81-B4EB2E7C33E7}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{955B42F4-D36E-0049-9298-802CC8EF13B9}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{7FACE5E6-C7B4-F745-9FF4-29278A1DC4CD}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{7F8F0AAE-DBA5-034B-B4F0-2CB8348AAC00}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{68BCD752-A00D-9C4C-ADF0-0D8E348EB68B}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{DE56F41C-D63B-9B43-8D26-1739F1F06935}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{726BBC48-45B3-D746-8FDD-1C80CD1AFC8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6C2814-C653-D94C-8145-840A076A0BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A66A4-ECAA-D040-8E89-2097DF05C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="13" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="12" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -4390,8 +4390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B566516-3573-A747-8A2F-68895FB51EC3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4399,6 +4399,9 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="B1">
+        <v>1380</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -4650,8 +4653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D0EF36-4F73-5744-8C60-6CDF93AE75EF}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36A66A4-ECAA-D040-8E89-2097DF05C8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB24069-0E94-184C-B8EA-3F3629AE8628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="12" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" firstSheet="1" activeTab="14" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="23_30" sheetId="12" r:id="rId12"/>
     <sheet name="23_45" sheetId="13" r:id="rId13"/>
     <sheet name="00_01" sheetId="14" r:id="rId14"/>
+    <sheet name="00_15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="73">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -2911,6 +2912,183 @@
         <family val="2"/>
       </rPr>
       <t>99,19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1509 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1366239</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>786363</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>57,56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6314</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>780049</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,20</t>
     </r>
     <r>
       <rPr>
@@ -4390,7 +4568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B566516-3573-A747-8A2F-68895FB51EC3}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4907,6 +5085,269 @@
     <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{68BCD752-A00D-9C4C-ADF0-0D8E348EB68B}"/>
     <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{DE56F41C-D63B-9B43-8D26-1739F1F06935}"/>
     <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{726BBC48-45B3-D746-8FDD-1C80CD1AFC8E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6AB4C5-F4AB-374F-9CBA-FDD9AD3E3CCB}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>284409</v>
+      </c>
+      <c r="C11" s="1">
+        <v>81191</v>
+      </c>
+      <c r="D11" s="1">
+        <v>365600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>46.87</v>
+      </c>
+      <c r="F11" s="1">
+        <v>46.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>92544</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32924</v>
+      </c>
+      <c r="D12" s="1">
+        <v>125468</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>81064</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16239</v>
+      </c>
+      <c r="D13" s="1">
+        <v>97303</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72677</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11872</v>
+      </c>
+      <c r="D14" s="1">
+        <v>84549</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10.84</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52319</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8376</v>
+      </c>
+      <c r="D15" s="1">
+        <v>60695</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.78</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17981</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6121</v>
+      </c>
+      <c r="D16" s="1">
+        <v>24102</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.09</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9035</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3052</v>
+      </c>
+      <c r="D17" s="1">
+        <v>12087</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7503</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2742</v>
+      </c>
+      <c r="D18" s="1">
+        <v>10245</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>617532</v>
+      </c>
+      <c r="C19" s="3">
+        <v>162517</v>
+      </c>
+      <c r="D19" s="3">
+        <v>780049</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{EDC3F6B1-1941-E94E-B211-99C97CD9D43C}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{2DBEBAF1-0322-EE4D-A15F-B0409F3119B3}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{F38891F1-F540-DF47-818A-364743A2E139}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{AC4DF5F1-F8C2-BD4F-BBB8-9A95DCF7917F}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{7CA4BC1C-370B-CC4E-A6E6-0E85A10F57F4}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{1C26AF4C-D30A-D944-A132-91AE946D3665}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{7FB81512-AE57-674D-A217-913CFAA3535C}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{BBCC411D-D2E2-A547-B9FB-CF6C9627DEB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/prezidento_rinkimai_2024.xlsx
+++ b/data/prezidento_rinkimai_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mpiktas/R/rinkimai_20240512/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB24069-0E94-184C-B8EA-3F3629AE8628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D105E8-9DA0-B745-BD73-C709A4CC68AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" firstSheet="1" activeTab="14" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" firstSheet="2" activeTab="15" xr2:uid="{AC3A57F6-202B-7B43-8D73-6AF1FDA1C625}"/>
   </bookViews>
   <sheets>
     <sheet name="20_45" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="23_45" sheetId="13" r:id="rId13"/>
     <sheet name="00_01" sheetId="14" r:id="rId14"/>
     <sheet name="00_15" sheetId="15" r:id="rId15"/>
+    <sheet name="08_45" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="77">
   <si>
     <r>
       <t>Apylinkių skaičius - </t>
@@ -3089,6 +3090,217 @@
         <family val="2"/>
       </rPr>
       <t>99,20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Apylinkių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1895</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (duomenys iš 1895 apylinkių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Savivaldybių skaičius - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(duomenys iš 60 savivaldybių)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> rinkėjų sąraše įrašyta rinkėjų - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2377506</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, rinkimuose dalyvavo - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1414028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>59,48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> negaliojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,81</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%), galiojančių biuletenių - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1402624</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>99,19</t>
     </r>
     <r>
       <rPr>
@@ -5094,7 +5306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6AB4C5-F4AB-374F-9CBA-FDD9AD3E3CCB}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -5348,6 +5560,269 @@
     <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{1C26AF4C-D30A-D944-A132-91AE946D3665}"/>
     <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{7FB81512-AE57-674D-A217-913CFAA3535C}"/>
     <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{BBCC411D-D2E2-A547-B9FB-CF6C9627DEB5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689778F5-3B0B-2643-9372-28DDEE2375BA}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>494612</v>
+      </c>
+      <c r="C11" s="1">
+        <v>130183</v>
+      </c>
+      <c r="D11" s="1">
+        <v>624795</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44.54</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>209507</v>
+      </c>
+      <c r="C12" s="1">
+        <v>70237</v>
+      </c>
+      <c r="D12" s="1">
+        <v>279744</v>
+      </c>
+      <c r="E12" s="1">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>19.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>146359</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28486</v>
+      </c>
+      <c r="D13" s="1">
+        <v>174845</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.47</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>112392</v>
+      </c>
+      <c r="C14" s="1">
+        <v>18696</v>
+      </c>
+      <c r="D14" s="1">
+        <v>131088</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>89904</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13611</v>
+      </c>
+      <c r="D15" s="1">
+        <v>103515</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>37676</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12331</v>
+      </c>
+      <c r="D16" s="1">
+        <v>50007</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15069</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4471</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19540</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14148</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4942</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19090</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1119667</v>
+      </c>
+      <c r="C19" s="3">
+        <v>282957</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1402624</v>
+      </c>
+      <c r="E19" s="3">
+        <v>100</v>
+      </c>
+      <c r="F19" s="3">
+        <v>99.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435326.html" xr:uid="{CC73BE3A-B2A5-594A-AF9C-5C9A2CF4A57B}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435331.html" xr:uid="{7466E8C0-C7B2-1443-9B6F-357650CDB8FE}"/>
+    <hyperlink ref="A13" r:id="rId3" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435334.html" xr:uid="{15049459-75C1-8B46-9739-C8870A6155CD}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435327.html" xr:uid="{56F774EE-98E3-D14D-986B-A724F8A9B82F}"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435325.html" xr:uid="{DF0EBE2C-3677-9D42-B740-5C33B48A9D1E}"/>
+    <hyperlink ref="A16" r:id="rId6" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435333.html" xr:uid="{EA4E45F7-9455-C04F-92C0-760B7AF11CD9}"/>
+    <hyperlink ref="A17" r:id="rId7" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435329.html" xr:uid="{CA232473-6C49-2D44-9C39-749F20FAE34C}"/>
+    <hyperlink ref="A18" r:id="rId8" display="https://rezultatai.vrk.lt/?srcUrl=/rinkimai/1504/1/2070/rezultatai/lt/rezultataiPreKandBalsLietuvoje_rkndId-2435328.html" xr:uid="{5E28E893-F9B0-3040-8EE9-DE2598F000D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
